--- a/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.78758723785964</v>
+        <v>94.7114059010888</v>
       </c>
       <c r="D2" t="n">
-        <v>14.40416933263537</v>
+        <v>11.72199951832921</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.27181235933973</v>
+        <v>92.31402638222588</v>
       </c>
       <c r="D3" t="n">
-        <v>14.47148847462482</v>
+        <v>14.23836055820564</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.66105527816514</v>
+        <v>91.48017164721391</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0764566647397</v>
+        <v>15.77029587660908</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.69657523887686</v>
+        <v>88.62562275894645</v>
       </c>
       <c r="D5" t="n">
-        <v>15.58900129053112</v>
+        <v>13.98227175279856</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.1800259396237</v>
+        <v>84.99323741010556</v>
       </c>
       <c r="D6" t="n">
-        <v>15.98986619680113</v>
+        <v>14.24406089878657</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>90.6291239155525</v>
+        <v>88.9732105102801</v>
       </c>
       <c r="D7" t="n">
-        <v>15.15882646941132</v>
+        <v>12.87414078397156</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>90.61818556248147</v>
+        <v>86.50921942409261</v>
       </c>
       <c r="D8" t="n">
-        <v>15.76534859677984</v>
+        <v>14.41628647530917</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.6474457426835</v>
+        <v>84.50338919326032</v>
       </c>
       <c r="D9" t="n">
-        <v>14.14878132899926</v>
+        <v>13.55720735043033</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.92057689461448</v>
+        <v>85.12142299105132</v>
       </c>
       <c r="D10" t="n">
-        <v>14.78030898486867</v>
+        <v>12.61770546740422</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.85991963969705</v>
+        <v>84.18515345851937</v>
       </c>
       <c r="D11" t="n">
-        <v>15.56794784299383</v>
+        <v>13.7449051721709</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.52680103436427</v>
+        <v>81.0736355920685</v>
       </c>
       <c r="D12" t="n">
-        <v>14.96534657988837</v>
+        <v>15.48088826854277</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.5289535626862</v>
+        <v>83.75969396103432</v>
       </c>
       <c r="D13" t="n">
-        <v>13.32151024514276</v>
+        <v>12.07536122836117</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>82.61295399648047</v>
+        <v>79.17181604456999</v>
       </c>
       <c r="D14" t="n">
-        <v>14.58077892913159</v>
+        <v>13.31810557372085</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.75789297385221</v>
+        <v>81.20246560402971</v>
       </c>
       <c r="D15" t="n">
-        <v>13.62270451076226</v>
+        <v>13.51643532043968</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.94249066481521</v>
+        <v>76.57484374810375</v>
       </c>
       <c r="D16" t="n">
-        <v>13.25215144183203</v>
+        <v>13.75549290207557</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.74481294753906</v>
+        <v>80.21050569350056</v>
       </c>
       <c r="D17" t="n">
-        <v>12.63457382989681</v>
+        <v>13.73141214044357</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>78.31098555244228</v>
+        <v>74.45538592400653</v>
       </c>
       <c r="D18" t="n">
-        <v>12.8278131715504</v>
+        <v>13.82948573881379</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>77.17609106220391</v>
+        <v>72.30796570354812</v>
       </c>
       <c r="D19" t="n">
-        <v>14.7151036437913</v>
+        <v>12.81084314550553</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.85763472444557</v>
+        <v>74.10332373494668</v>
       </c>
       <c r="D20" t="n">
-        <v>15.61699620525625</v>
+        <v>14.35185324269331</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.72738143756825</v>
+        <v>73.24897559964674</v>
       </c>
       <c r="D21" t="n">
-        <v>16.26275895952437</v>
+        <v>14.2796216863623</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>75.15723039178796</v>
+        <v>73.428577630834</v>
       </c>
       <c r="D22" t="n">
-        <v>13.36867011470165</v>
+        <v>13.23997487755618</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.57676276277377</v>
+        <v>70.18308087423841</v>
       </c>
       <c r="D23" t="n">
-        <v>13.54843145496713</v>
+        <v>13.34386002446182</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.38916106287795</v>
+        <v>68.66413596035203</v>
       </c>
       <c r="D24" t="n">
-        <v>12.23536569652312</v>
+        <v>14.1767695816446</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.83134006929536</v>
+        <v>66.46878087993058</v>
       </c>
       <c r="D25" t="n">
-        <v>13.40937618434702</v>
+        <v>13.92644462308492</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.00586179984064</v>
+        <v>65.83704204404202</v>
       </c>
       <c r="D26" t="n">
-        <v>14.20664637407618</v>
+        <v>11.94526867824253</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.30011242062146</v>
+        <v>66.73084212815981</v>
       </c>
       <c r="D27" t="n">
-        <v>14.25481808133787</v>
+        <v>14.02080909767205</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.40494716909183</v>
+        <v>66.44538012035116</v>
       </c>
       <c r="D28" t="n">
-        <v>14.56873057189583</v>
+        <v>14.97566822424051</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.82085669654872</v>
+        <v>63.21542039685447</v>
       </c>
       <c r="D29" t="n">
-        <v>13.8954822016328</v>
+        <v>12.51549142667943</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.99724047630814</v>
+        <v>61.86265324245525</v>
       </c>
       <c r="D30" t="n">
-        <v>14.59847369253178</v>
+        <v>13.99005745023881</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.32360533677566</v>
+        <v>62.73020288486637</v>
       </c>
       <c r="D31" t="n">
-        <v>13.07635611759308</v>
+        <v>12.62252984958323</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.25415784391103</v>
+        <v>61.21649478269089</v>
       </c>
       <c r="D32" t="n">
-        <v>13.34456532478035</v>
+        <v>13.98938095121362</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.52440671350626</v>
+        <v>59.28608574952064</v>
       </c>
       <c r="D33" t="n">
-        <v>15.58459944178939</v>
+        <v>13.11498905088209</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.32760189443249</v>
+        <v>56.0834063187321</v>
       </c>
       <c r="D34" t="n">
-        <v>13.88310246182165</v>
+        <v>13.20934698668276</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.10780549635896</v>
+        <v>57.18590890778309</v>
       </c>
       <c r="D35" t="n">
-        <v>14.26882332027945</v>
+        <v>12.2773097628336</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.80577218313472</v>
+        <v>55.25783998808021</v>
       </c>
       <c r="D36" t="n">
-        <v>12.73678178012375</v>
+        <v>13.38014334153131</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.47792068386746</v>
+        <v>53.13012813923523</v>
       </c>
       <c r="D37" t="n">
-        <v>12.58825939170016</v>
+        <v>14.88491600398024</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.3718175816441</v>
+        <v>52.60609632854973</v>
       </c>
       <c r="D38" t="n">
-        <v>16.29749284720771</v>
+        <v>12.92188768352663</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.17701881985167</v>
+        <v>52.89443749383307</v>
       </c>
       <c r="D39" t="n">
-        <v>13.209645015055</v>
+        <v>12.15535189904412</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.37358949797255</v>
+        <v>50.44571164682409</v>
       </c>
       <c r="D40" t="n">
-        <v>13.50724499364848</v>
+        <v>14.8631261565718</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>54.83006403282626</v>
+        <v>52.51760891329911</v>
       </c>
       <c r="D41" t="n">
-        <v>13.36509736033626</v>
+        <v>13.29206537110667</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.69065236621466</v>
+        <v>50.16246898588717</v>
       </c>
       <c r="D42" t="n">
-        <v>14.28859960821314</v>
+        <v>14.31667846168515</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.79963069134423</v>
+        <v>49.10857984651677</v>
       </c>
       <c r="D43" t="n">
-        <v>14.63638957435361</v>
+        <v>14.41380031760387</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.14127537407951</v>
+        <v>48.27392331969579</v>
       </c>
       <c r="D44" t="n">
-        <v>12.83374238849396</v>
+        <v>13.36302686837178</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.06763624937924</v>
+        <v>49.8085393537583</v>
       </c>
       <c r="D45" t="n">
-        <v>15.44153711599691</v>
+        <v>12.37125526676486</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.00289698222349</v>
+        <v>47.14906900558513</v>
       </c>
       <c r="D46" t="n">
-        <v>16.52062488214587</v>
+        <v>13.34780790560159</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.06560378942881</v>
+        <v>46.16103747898439</v>
       </c>
       <c r="D47" t="n">
-        <v>14.5088986931085</v>
+        <v>12.38100361700011</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.05843349981281</v>
+        <v>43.17321800574395</v>
       </c>
       <c r="D48" t="n">
-        <v>14.18004898890277</v>
+        <v>13.28028677836284</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.53580644643856</v>
+        <v>42.01920085973769</v>
       </c>
       <c r="D49" t="n">
-        <v>13.79304402911518</v>
+        <v>12.02921077297338</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.94281053917208</v>
+        <v>42.782815888722</v>
       </c>
       <c r="D50" t="n">
-        <v>12.20299421377795</v>
+        <v>12.99477526965604</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.73906058156465</v>
+        <v>40.51897593619402</v>
       </c>
       <c r="D51" t="n">
-        <v>11.98997402106477</v>
+        <v>11.66992874834812</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.12797353815232</v>
+        <v>41.08926535917089</v>
       </c>
       <c r="D52" t="n">
-        <v>12.95885462902386</v>
+        <v>12.33671429713082</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.77013496107877</v>
+        <v>38.81153402872103</v>
       </c>
       <c r="D53" t="n">
-        <v>14.24548488472812</v>
+        <v>11.84708383894163</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.31917408856755</v>
+        <v>37.12047130527054</v>
       </c>
       <c r="D54" t="n">
-        <v>14.05254862785931</v>
+        <v>14.17828363054587</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.62966084925452</v>
+        <v>37.92345347893993</v>
       </c>
       <c r="D55" t="n">
-        <v>12.92619141099047</v>
+        <v>13.12545937186635</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.44060795944728</v>
+        <v>34.2394989031083</v>
       </c>
       <c r="D56" t="n">
-        <v>11.59850342819918</v>
+        <v>13.00810065075321</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.79518420742025</v>
+        <v>34.27132222853118</v>
       </c>
       <c r="D57" t="n">
-        <v>12.72702689854895</v>
+        <v>13.46184487642278</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.1192272541453</v>
+        <v>35.08382704234073</v>
       </c>
       <c r="D58" t="n">
-        <v>11.73933204907929</v>
+        <v>13.8976132267638</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.58822845751886</v>
+        <v>33.67791268930895</v>
       </c>
       <c r="D59" t="n">
-        <v>14.5554023990336</v>
+        <v>14.21111019807359</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.94439663264757</v>
+        <v>32.44767632204638</v>
       </c>
       <c r="D60" t="n">
-        <v>14.48148524782806</v>
+        <v>15.49315739536734</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.34519549015152</v>
+        <v>31.87546905077597</v>
       </c>
       <c r="D61" t="n">
-        <v>14.64578750883889</v>
+        <v>13.63474221746656</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.47658810895544</v>
+        <v>29.07156011705867</v>
       </c>
       <c r="D62" t="n">
-        <v>15.23948767523251</v>
+        <v>14.44878982545134</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.59865283153529</v>
+        <v>28.33793573568481</v>
       </c>
       <c r="D63" t="n">
-        <v>13.5332428950372</v>
+        <v>13.37441477693392</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.90719742787405</v>
+        <v>29.00083820179163</v>
       </c>
       <c r="D64" t="n">
-        <v>13.13240951676988</v>
+        <v>14.8958609716487</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>29.87212136010295</v>
+        <v>28.21853332304396</v>
       </c>
       <c r="D65" t="n">
-        <v>12.79980778195818</v>
+        <v>11.85139424805625</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.69616696387514</v>
+        <v>26.13842365142931</v>
       </c>
       <c r="D66" t="n">
-        <v>14.58868462439387</v>
+        <v>13.8495439633131</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.16033471199126</v>
+        <v>25.29004176992954</v>
       </c>
       <c r="D67" t="n">
-        <v>13.25671950690363</v>
+        <v>11.90668106948404</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.86958402648061</v>
+        <v>22.19354241128442</v>
       </c>
       <c r="D68" t="n">
-        <v>13.85718337921163</v>
+        <v>12.27835865632627</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.28723814772652</v>
+        <v>22.05371719268426</v>
       </c>
       <c r="D69" t="n">
-        <v>13.6370493915583</v>
+        <v>13.67310768701088</v>
       </c>
     </row>
   </sheetData>
